--- a/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow_IT.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/17_Workflow_IT.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Action</t>
   </si>
@@ -287,12 +287,6 @@
   </si>
   <si>
     <t>Update_Nightly_IT</t>
-  </si>
-  <si>
-    <t>Update VM Table</t>
-  </si>
-  <si>
-    <t>createTableforVM (Utils)</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1056,7 +1056,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1104,7 +1110,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1152,7 +1164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1200,7 +1218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1248,7 +1272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1296,7 +1326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1344,7 +1380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1392,7 +1434,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1440,7 +1488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1488,7 +1542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1536,7 +1596,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1584,7 +1650,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1632,7 +1704,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 2"/>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1680,12 +1812,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2055" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2055" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1706,6 +1844,492 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11420475" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8515350" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -1728,487 +2352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9525000" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11420475" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8515350" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 7"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8629650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 7"/>
+        <xdr:cNvPr id="11" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2256,7 +2406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 7"/>
+        <xdr:cNvPr id="12" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2299,12 +2455,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 7"/>
+        <xdr:cNvPr id="13" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2313,6 +2475,114 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8629650" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2352,12 +2622,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3075" name="_xssf_cell_comment" hidden="1"/>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000030C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2395,12 +2671,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvPr id="2" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2443,12 +2725,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvPr id="3" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2491,12 +2779,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2539,12 +2833,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvPr id="5" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2553,198 +2853,6 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9448800" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10153650" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="7524750"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2784,15 +2892,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10782300" cy="9525000"/>
+        <xdr:cNvPr id="6" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10153650" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2832,7 +2946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvPr id="7" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2875,12 +2995,180 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 3"/>
+        <xdr:cNvPr id="8" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="7524750"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="7524750"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2928,7 +3216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 3"/>
+        <xdr:cNvPr id="12" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2971,12 +3265,126 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvPr id="13" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10782300" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3029,7 +3437,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="4099" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3072,7 +3486,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvPr id="2" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3120,7 +3540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvPr id="3" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3168,7 +3594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvPr id="4" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3216,7 +3648,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvPr id="5" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3264,7 +3702,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvPr id="6" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3312,7 +3756,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvPr id="7" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3360,7 +3810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvPr id="8" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3408,7 +3864,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvPr id="9" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3456,7 +3918,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvPr id="10" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3504,7 +3972,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvPr id="11" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3552,7 +4026,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 3"/>
+        <xdr:cNvPr id="12" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3600,7 +4080,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="AutoShape 3"/>
+        <xdr:cNvPr id="13" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3648,7 +4134,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="AutoShape 3"/>
+        <xdr:cNvPr id="14" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4017,10 +4563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4077,35 +4623,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4118,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -4155,24 +4683,12 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
     </row>
